--- a/1_Result_Tables/4_ifoCAST_evaluations_last_rep/ifoCAst_error_tables_last_rep_latest.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_last_rep/ifoCAst_error_tables_last_rep_latest.xlsx
@@ -423,22 +423,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.006981334053522703</v>
+        <v>0.04076172799836216</v>
       </c>
       <c r="C2">
-        <v>1.537154011523841</v>
+        <v>1.393451858688113</v>
       </c>
       <c r="D2">
-        <v>6.953446590662693</v>
+        <v>6.301463374471818</v>
       </c>
       <c r="E2">
-        <v>2.636938867448901</v>
+        <v>2.510271573848498</v>
       </c>
       <c r="F2">
-        <v>2.705432712084788</v>
+        <v>2.571923783630169</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_ifoCAST_evaluations_last_rep/ifoCAst_error_tables_last_rep_latest.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_last_rep/ifoCAst_error_tables_last_rep_latest.xlsx
@@ -423,19 +423,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.04076172799836216</v>
+        <v>0.02301637451559633</v>
       </c>
       <c r="C2">
-        <v>1.393451858688113</v>
+        <v>1.453483806356359</v>
       </c>
       <c r="D2">
-        <v>6.301463374471818</v>
+        <v>6.459978470793084</v>
       </c>
       <c r="E2">
-        <v>2.510271573848498</v>
+        <v>2.541648770147654</v>
       </c>
       <c r="F2">
-        <v>2.571923783630169</v>
+        <v>2.604308190894869</v>
       </c>
       <c r="G2">
         <v>21</v>

--- a/1_Result_Tables/4_ifoCAST_evaluations_last_rep/ifoCAst_error_tables_last_rep_latest.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_last_rep/ifoCAst_error_tables_last_rep_latest.xlsx
@@ -423,22 +423,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02301637451559633</v>
+        <v>0.03400945102512423</v>
       </c>
       <c r="C2">
-        <v>1.453483806356359</v>
+        <v>1.399455635964034</v>
       </c>
       <c r="D2">
-        <v>6.459978470793084</v>
+        <v>6.170139677499137</v>
       </c>
       <c r="E2">
-        <v>2.541648770147654</v>
+        <v>2.483976585537621</v>
       </c>
       <c r="F2">
-        <v>2.604308190894869</v>
+        <v>2.542192780186525</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
